--- a/GOOGL.xlsx
+++ b/GOOGL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E257C-ABC8-4B8E-B35F-5EC4015DE414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F4495-71C5-472C-B0A8-7E749383AC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="390" windowWidth="38175" windowHeight="15240" xr2:uid="{D4E53C97-B5F0-4187-8ABA-7D06CADAD88F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D4E53C97-B5F0-4187-8ABA-7D06CADAD88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t xml:space="preserve">Alpahbet </t>
   </si>
@@ -188,6 +188,21 @@
   <si>
     <t>18-03-25: Aqcuistion of Wiz for 32 billion USD</t>
   </si>
+  <si>
+    <t xml:space="preserve">CEO: </t>
+  </si>
+  <si>
+    <t>Founded: 1998 by Larry Page and Sergey Brin</t>
+  </si>
+  <si>
+    <t>Antitrust trial</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Sundar Pichai (since 2015)</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +275,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -273,6 +288,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CCFA51-5998-459C-9259-D851D24389D5}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="3">
-        <v>148.5</v>
+        <v>162.11000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -642,10 +658,11 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>12228</v>
+        <f>5820+856+5459</f>
+        <v>12135</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -657,7 +674,7 @@
       </c>
       <c r="I4" s="2">
         <f>I2*I3</f>
-        <v>1815858</v>
+        <v>1967204.85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -668,11 +685,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="2">
-        <f>23466+72191</f>
-        <v>95657</v>
+        <f>23264+72064</f>
+        <v>95328</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -683,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2">
-        <v>10883</v>
+        <v>10886</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -695,7 +712,20 @@
       </c>
       <c r="I7" s="2">
         <f>I4-I5+I6</f>
-        <v>1731084</v>
+        <v>1882762.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -706,6 +736,11 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -722,10 +757,10 @@
   <dimension ref="A1:R342"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="C31:J33"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +799,9 @@
       <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -793,7 +831,9 @@
       <c r="J3" s="2">
         <v>54034</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2">
+        <v>50702</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -830,7 +870,9 @@
       <c r="J4" s="2">
         <v>10473</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>8927</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -867,7 +909,9 @@
       <c r="J5" s="2">
         <v>7954</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>7256</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -904,7 +948,9 @@
       <c r="J6" s="2">
         <v>11633</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>10379</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -941,7 +987,9 @@
       <c r="J7" s="2">
         <v>11955</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>12260</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -986,7 +1034,10 @@
         <f>400+20</f>
         <v>420</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <f>450+260</f>
+        <v>710</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1023,7 +1074,9 @@
       <c r="J9" s="6">
         <v>96469</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="6">
+        <v>90234</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1060,7 +1113,9 @@
       <c r="J10" s="2">
         <v>40613</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>36361</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1078,7 +1133,7 @@
         <v>39175</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:J11" si="0">D9-D10</f>
+        <f t="shared" ref="D11:K11" si="0">D9-D10</f>
         <v>42688</v>
       </c>
       <c r="E11" s="2">
@@ -1105,7 +1160,10 @@
         <f t="shared" si="0"/>
         <v>55856</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <f>K9-K10</f>
+        <v>53873</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1142,7 +1200,9 @@
       <c r="J12" s="2">
         <v>13116</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>13556</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1179,7 +1239,9 @@
       <c r="J13" s="2">
         <v>7363</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>6172</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1216,7 +1278,9 @@
       <c r="J14" s="2">
         <v>4405</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>3539</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1234,7 +1298,7 @@
         <v>17415</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:J15" si="2">D11-SUM(D12:D14)</f>
+        <f t="shared" ref="D15:K15" si="2">D11-SUM(D12:D14)</f>
         <v>21838</v>
       </c>
       <c r="E15" s="2">
@@ -1261,7 +1325,10 @@
         <f t="shared" si="2"/>
         <v>30972</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>30606</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1298,7 +1365,9 @@
       <c r="J16" s="2">
         <v>1271</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>11183</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1316,7 +1385,7 @@
         <v>18205</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D17:J17" si="4">D15+D16</f>
+        <f t="shared" ref="D17:K17" si="4">D15+D16</f>
         <v>21901</v>
       </c>
       <c r="E17" s="2">
@@ -1343,7 +1412,10 @@
         <f t="shared" si="4"/>
         <v>32243</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <f t="shared" si="4"/>
+        <v>41789</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1380,7 +1452,9 @@
       <c r="J18" s="2">
         <v>5707</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>7249</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1398,7 +1472,7 @@
         <v>15051</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:J19" si="6">D17-D18</f>
+        <f t="shared" ref="D19:K19" si="6">D17-D18</f>
         <v>18366</v>
       </c>
       <c r="E19" s="2">
@@ -1425,7 +1499,10 @@
         <f t="shared" si="6"/>
         <v>26536</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <f t="shared" si="6"/>
+        <v>34540</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1488,7 +1565,10 @@
         <f>+J19/J22</f>
         <v>2.1701014066077855</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="7">
+        <f>+K19/K22</f>
+        <v>2.8416289592760182</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1525,7 +1605,9 @@
       <c r="J22" s="2">
         <v>12228</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>12155</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1576,7 +1658,10 @@
         <f>+J3/F3-1</f>
         <v>0.12523948354852155</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="8">
+        <f>+K3/G3-1</f>
+        <v>9.8492070370049367E-2</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1606,10 +1691,13 @@
         <v>0.12185613682092544</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:J30" si="9">+J4/F4-1</f>
+        <f t="shared" ref="J25:K30" si="9">+J4/F4-1</f>
         <v>0.1383695652173913</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="8">
+        <f t="shared" si="9"/>
+        <v>0.10346106304079106</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1642,7 +1730,10 @@
         <f t="shared" si="9"/>
         <v>-4.1340243461492121E-2</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="8">
+        <f t="shared" si="9"/>
+        <v>-2.1179009847565045E-2</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1675,7 +1766,10 @@
         <f t="shared" si="9"/>
         <v>7.772836761163604E-2</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="8">
+        <f t="shared" si="9"/>
+        <v>0.18766449250486317</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1708,7 +1802,10 @@
         <f t="shared" si="9"/>
         <v>0.3005874673629243</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="8">
+        <f t="shared" si="9"/>
+        <v>0.28055149362857734</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1741,7 +1838,10 @@
         <f t="shared" si="9"/>
         <v>-0.4795539033457249</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="8">
+        <f t="shared" si="9"/>
+        <v>0.25220458553791891</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1751,30 +1851,33 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="10">
         <f t="shared" si="8"/>
         <v>0.15406880937710454</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="10">
         <f t="shared" si="8"/>
         <v>0.13589083695244231</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="10">
         <f t="shared" si="8"/>
         <v>0.15092642092498654</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="10">
         <f t="shared" si="9"/>
         <v>0.11770362646275045</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="10">
+        <f t="shared" si="9"/>
+        <v>0.12037646357665222</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1819,7 +1922,10 @@
         <f>+J11/J9</f>
         <v>0.5790046543449191</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="8">
+        <f>+K11/K9</f>
+        <v>0.5970365937451515</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1864,7 +1970,10 @@
         <f>+J15/J9</f>
         <v>0.32105650519856122</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="8">
+        <f>+K15/K9</f>
+        <v>0.33918478622248821</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1909,7 +2018,10 @@
         <f>+J18/J17</f>
         <v>0.17699965884067859</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="8">
+        <f>+K18/K17</f>
+        <v>0.173466701763622</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
